--- a/biology/Zoologie/Coddingtonia/Coddingtonia.xlsx
+++ b/biology/Zoologie/Coddingtonia/Coddingtonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coddingtonia est un genre d'araignées aranéomorphes de la famille des Theridiosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coddingtonia est un genre d'araignées aranéomorphes de la famille des Theridiosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Chine, au Laos, en Malaisie et en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Chine, au Laos, en Malaisie et en Indonésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 13/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 13/03/2024) :
 Coddingtonia anaktakun Labarque &amp; Griswold, 2014
 Coddingtonia chenyufengi Lin &amp; Li, 2024
 Coddingtonia discobulbus (Wunderlich, 2011)
@@ -579,10 +595,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Miller, Griswold et Yin en 2009 dans les Theridiosomatidae.
-Luangnam[2] a été placé en synonymie par Labarque et Griswold en 2014[3].
+Luangnam a été placé en synonymie par Labarque et Griswold en 2014.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été nommé en l'honneur de Jonathan A. Coddington[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été nommé en l'honneur de Jonathan A. Coddington.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Miller, Griswold &amp; Yin, 2009 : « The symphytognathoid spiders of the Gaoligongshan, Yunnan, China (Araneae, Araneoidea): Systematics and diversity of micro-orbweavers. » ZooKeys, no 11, p. 9-195 (texte intégral).</t>
         </is>
